--- a/module-4/assignment-2.xlsx
+++ b/module-4/assignment-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\csd\csd-380\module-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FDC25F2-A439-4C31-91EC-1E7A446D30FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47E0E8E-5CBA-438A-AD55-A2CD8DE3F108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4130" yWindow="3580" windowWidth="25360" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6030" yWindow="3570" windowWidth="23040" windowHeight="12370" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Table 1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="60">
   <si>
     <t>Table 1</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t>The test verifies the user can access the edit form by clicking the pencil icon on the selected task and the edit form appears. The Save button remains active in Step 5 and failed. It should be greyed out when the task textbox is empty. This results in a blank item appearing in the Todo list.</t>
+  </si>
+  <si>
+    <t>https://github.com/VanhSom/csd-380.git</t>
   </si>
 </sst>
 </file>
@@ -640,6 +643,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -661,31 +685,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1936,11 +1939,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1955,24 +1958,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.65" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="37.5">
       <c r="A3" s="3"/>
@@ -1982,10 +1985,13 @@
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="32" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -2000,10 +2006,10 @@
       <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2023,7 +2029,7 @@
       <c r="E5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="21" t="e" vm="1">
+      <c r="F5" s="13" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2040,10 +2046,10 @@
       <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="23" t="e" vm="2">
+      <c r="E6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="15" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2060,10 +2066,10 @@
       <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="23" t="e" vm="3">
+      <c r="E7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="15" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2080,10 +2086,10 @@
       <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="22" t="e" vm="4">
+      <c r="E8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="14" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2091,13 +2097,13 @@
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2125,7 +2131,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5:F7"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2139,24 +2145,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.65" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="32.25" customHeight="1">
       <c r="A3" s="3"/>
@@ -2166,10 +2172,13 @@
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="32" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -2184,10 +2193,10 @@
       <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2227,7 +2236,7 @@
       <c r="E6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="23" t="e" vm="2">
+      <c r="F6" s="15" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2247,7 +2256,7 @@
       <c r="E7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="23" t="e" vm="3">
+      <c r="F7" s="15" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2295,12 +2304,12 @@
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2325,10 +2334,10 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2342,24 +2351,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.65" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="32.25" customHeight="1">
       <c r="A3" s="3"/>
@@ -2369,10 +2378,13 @@
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="32" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -2387,10 +2399,10 @@
       <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2430,7 +2442,7 @@
       <c r="E6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="23" t="e" vm="2">
+      <c r="F6" s="15" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2450,7 +2462,7 @@
       <c r="E7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="23" t="e" vm="3">
+      <c r="F7" s="15" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2470,7 +2482,7 @@
       <c r="E8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="23" t="e" vm="7">
+      <c r="F8" s="15" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2487,10 +2499,10 @@
       <c r="D9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="23" t="e" vm="8">
+      <c r="E9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="15" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2507,10 +2519,10 @@
       <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="23" t="e" vm="9">
+      <c r="E10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="15" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2518,12 +2530,12 @@
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2551,7 +2563,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8:E8"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2565,24 +2577,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.65" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="32.25" customHeight="1">
       <c r="A3" s="3"/>
@@ -2592,10 +2604,13 @@
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="32" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -2610,10 +2625,10 @@
       <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2633,7 +2648,7 @@
       <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="26" t="e" vm="1">
+      <c r="F5" s="17" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2650,10 +2665,10 @@
       <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="23" t="e" vm="10">
+      <c r="E6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="15" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2670,10 +2685,10 @@
       <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="23" t="e" vm="11">
+      <c r="E7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="15" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2681,12 +2696,12 @@
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2710,11 +2725,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -2728,24 +2743,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.65" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="32.25" customHeight="1">
       <c r="A3" s="3"/>
@@ -2755,10 +2770,13 @@
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="32" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -2773,10 +2791,10 @@
       <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2796,7 +2814,7 @@
       <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="21" t="e" vm="1">
+      <c r="F5" s="13" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2816,7 +2834,7 @@
       <c r="E6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="23" t="e" vm="2">
+      <c r="F6" s="15" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2836,7 +2854,7 @@
       <c r="E7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="23" t="e" vm="3">
+      <c r="F7" s="15" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2856,7 +2874,7 @@
       <c r="E8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="23" t="e" vm="7">
+      <c r="F8" s="15" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2884,12 +2902,12 @@
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
